--- a/biology/Médecine/Ralph_Greenson/Ralph_Greenson.xlsx
+++ b/biology/Médecine/Ralph_Greenson/Ralph_Greenson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ralph Greenson (né Romeo Samuel Greenschpoon le 20 septembre 1911 et mort le 24 novembre 1979), est un psychiatre et psychanalyste américain qui a, entre autres, traité Marilyn Monroe[1], Tony Curtis, Frank Sinatra et Vivien Leigh.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ralph Greenson (né Romeo Samuel Greenschpoon le 20 septembre 1911 et mort le 24 novembre 1979), est un psychiatre et psychanalyste américain qui a, entre autres, traité Marilyn Monroe, Tony Curtis, Frank Sinatra et Vivien Leigh.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a fait ses études de médecine en Suisse et a été analysé par Wilhelm Stekel à Vienne puis par Otto Fenichel à Los Angeles. Son rôle de « psychanalyste d'Hollywood » lui a valu admiration, critiques et polémiques[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a fait ses études de médecine en Suisse et a été analysé par Wilhelm Stekel à Vienne puis par Otto Fenichel à Los Angeles. Son rôle de « psychanalyste d'Hollywood » lui a valu admiration, critiques et polémiques,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ralph Greenson, Technique et pratique de la psychanalyse, Paris, PUF, 1977,  (ISBN 2-13-034240-X)
 (en) Ralph R. Greenson, The Technique and Practice of Psychoanalysis. Vol. I, New York: International Universities Press, Inc., 1967.
@@ -575,7 +591,9 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Michel Schneider, Marilyn dernières séances, Paris, Grasset, 2006,  (ISBN 2-246-70371-9)
 Roman sur ses rapports à son psychanalyste, prix Interallié</t>
